--- a/Finished States/Michigan (iGaming).xlsx
+++ b/Finished States/Michigan (iGaming).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caseyrand/Documents/Github/sports-betting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caseyrand/Documents/Github/sports-betting/Finished States/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D6017E-66D7-3C4A-9862-8BB4A04EBF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB6D7F3-68E1-0C46-8DBD-43CB7F319AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32660" yWindow="-2020" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="58">
   <si>
     <t>State</t>
   </si>
@@ -201,7 +201,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:J437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,6 +620,9 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="2">
         <v>45017</v>
       </c>
@@ -649,6 +652,9 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="2">
         <v>45017</v>
       </c>
@@ -678,6 +684,9 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="2">
         <v>45017</v>
       </c>
@@ -707,6 +716,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="2">
         <v>45017</v>
       </c>
@@ -736,6 +748,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="2">
         <v>45017</v>
       </c>
@@ -765,6 +780,9 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="2">
         <v>45017</v>
       </c>
@@ -794,6 +812,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="2">
         <v>45017</v>
       </c>
@@ -823,6 +844,9 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="2">
         <v>45017</v>
       </c>
@@ -852,6 +876,9 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="2">
         <v>45017</v>
       </c>
@@ -881,6 +908,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="2">
         <v>45017</v>
       </c>
@@ -910,6 +940,9 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" s="2">
         <v>45017</v>
       </c>
@@ -939,6 +972,9 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="2">
         <v>45017</v>
       </c>
@@ -968,6 +1004,9 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" s="2">
         <v>45017</v>
       </c>
@@ -997,6 +1036,9 @@
       <c r="B15" t="s">
         <v>11</v>
       </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="2">
         <v>45017</v>
       </c>
@@ -1026,6 +1068,9 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="2">
         <v>45017</v>
       </c>
@@ -1055,6 +1100,9 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
       <c r="D17" s="2">
         <v>45017</v>
       </c>
@@ -1078,6 +1126,9 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" s="2">
         <v>44986</v>
       </c>
@@ -1107,6 +1158,9 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="2">
         <v>44986</v>
       </c>
@@ -1136,6 +1190,9 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="2">
         <v>44986</v>
       </c>
@@ -1165,6 +1222,9 @@
       <c r="B21" t="s">
         <v>11</v>
       </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" s="2">
         <v>44986</v>
       </c>
@@ -1194,6 +1254,9 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
       <c r="D22" s="2">
         <v>44986</v>
       </c>
@@ -1223,6 +1286,9 @@
       <c r="B23" t="s">
         <v>11</v>
       </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" s="2">
         <v>44986</v>
       </c>
@@ -1252,6 +1318,9 @@
       <c r="B24" t="s">
         <v>11</v>
       </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="2">
         <v>44986</v>
       </c>
@@ -1281,6 +1350,9 @@
       <c r="B25" t="s">
         <v>11</v>
       </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" s="2">
         <v>44986</v>
       </c>
@@ -1310,6 +1382,9 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" s="2">
         <v>44986</v>
       </c>
@@ -1339,6 +1414,9 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
       <c r="D27" s="2">
         <v>44986</v>
       </c>
@@ -1368,6 +1446,9 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
       <c r="D28" s="2">
         <v>44986</v>
       </c>
@@ -1397,6 +1478,9 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
       <c r="D29" s="2">
         <v>44986</v>
       </c>
@@ -1426,6 +1510,9 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
       <c r="D30" s="2">
         <v>44986</v>
       </c>
@@ -1455,6 +1542,9 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
       <c r="D31" s="2">
         <v>44986</v>
       </c>
@@ -1484,6 +1574,9 @@
       <c r="B32" t="s">
         <v>11</v>
       </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
       <c r="D32" s="2">
         <v>44986</v>
       </c>
@@ -1513,6 +1606,9 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
       <c r="D33" s="2">
         <v>44986</v>
       </c>
@@ -1536,6 +1632,9 @@
       <c r="B34" t="s">
         <v>11</v>
       </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
       <c r="D34" s="2">
         <v>44958</v>
       </c>
@@ -1565,6 +1664,9 @@
       <c r="B35" t="s">
         <v>11</v>
       </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
       <c r="D35" s="2">
         <v>44958</v>
       </c>
@@ -1594,6 +1696,9 @@
       <c r="B36" t="s">
         <v>11</v>
       </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
       <c r="D36" s="2">
         <v>44958</v>
       </c>
@@ -1623,6 +1728,9 @@
       <c r="B37" t="s">
         <v>11</v>
       </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
       <c r="D37" s="2">
         <v>44958</v>
       </c>
@@ -1652,6 +1760,9 @@
       <c r="B38" t="s">
         <v>11</v>
       </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
       <c r="D38" s="2">
         <v>44958</v>
       </c>
@@ -1681,6 +1792,9 @@
       <c r="B39" t="s">
         <v>11</v>
       </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
       <c r="D39" s="2">
         <v>44958</v>
       </c>
@@ -1710,6 +1824,9 @@
       <c r="B40" t="s">
         <v>11</v>
       </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
       <c r="D40" s="2">
         <v>44958</v>
       </c>
@@ -1739,6 +1856,9 @@
       <c r="B41" t="s">
         <v>11</v>
       </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
       <c r="D41" s="2">
         <v>44958</v>
       </c>
@@ -1768,6 +1888,9 @@
       <c r="B42" t="s">
         <v>11</v>
       </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
       <c r="D42" s="2">
         <v>44958</v>
       </c>
@@ -1797,6 +1920,9 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
       <c r="D43" s="2">
         <v>44958</v>
       </c>
@@ -1826,6 +1952,9 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
       <c r="D44" s="2">
         <v>44958</v>
       </c>
@@ -1855,6 +1984,9 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
       <c r="D45" s="2">
         <v>44958</v>
       </c>
@@ -1884,6 +2016,9 @@
       <c r="B46" t="s">
         <v>11</v>
       </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
       <c r="D46" s="2">
         <v>44958</v>
       </c>
@@ -1913,6 +2048,9 @@
       <c r="B47" t="s">
         <v>11</v>
       </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
       <c r="D47" s="2">
         <v>44958</v>
       </c>
@@ -1942,6 +2080,9 @@
       <c r="B48" t="s">
         <v>11</v>
       </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
       <c r="D48" s="2">
         <v>44958</v>
       </c>
@@ -1971,6 +2112,9 @@
       <c r="B49" t="s">
         <v>11</v>
       </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
       <c r="D49" s="2">
         <v>44958</v>
       </c>
@@ -1994,6 +2138,9 @@
       <c r="B50" t="s">
         <v>11</v>
       </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
       <c r="D50" s="2">
         <v>44927</v>
       </c>
@@ -2023,6 +2170,9 @@
       <c r="B51" t="s">
         <v>11</v>
       </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
       <c r="D51" s="2">
         <v>44927</v>
       </c>
@@ -2052,6 +2202,9 @@
       <c r="B52" t="s">
         <v>11</v>
       </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
       <c r="D52" s="2">
         <v>44927</v>
       </c>
@@ -2081,6 +2234,9 @@
       <c r="B53" t="s">
         <v>11</v>
       </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
       <c r="D53" s="2">
         <v>44927</v>
       </c>
@@ -2110,6 +2266,9 @@
       <c r="B54" t="s">
         <v>11</v>
       </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
       <c r="D54" s="2">
         <v>44927</v>
       </c>
@@ -2139,6 +2298,9 @@
       <c r="B55" t="s">
         <v>11</v>
       </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
       <c r="D55" s="2">
         <v>44927</v>
       </c>
@@ -2168,6 +2330,9 @@
       <c r="B56" t="s">
         <v>11</v>
       </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
       <c r="D56" s="2">
         <v>44927</v>
       </c>
@@ -2197,6 +2362,9 @@
       <c r="B57" t="s">
         <v>11</v>
       </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
       <c r="D57" s="2">
         <v>44927</v>
       </c>
@@ -2217,6 +2385,9 @@
       <c r="B58" t="s">
         <v>11</v>
       </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
       <c r="D58" s="2">
         <v>44927</v>
       </c>
@@ -2246,6 +2417,9 @@
       <c r="B59" t="s">
         <v>11</v>
       </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
       <c r="D59" s="2">
         <v>44927</v>
       </c>
@@ -2275,6 +2449,9 @@
       <c r="B60" t="s">
         <v>11</v>
       </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
       <c r="D60" s="2">
         <v>44927</v>
       </c>
@@ -2304,6 +2481,9 @@
       <c r="B61" t="s">
         <v>11</v>
       </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
       <c r="D61" s="2">
         <v>44927</v>
       </c>
@@ -2333,6 +2513,9 @@
       <c r="B62" t="s">
         <v>11</v>
       </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
       <c r="D62" s="2">
         <v>44927</v>
       </c>
@@ -2362,6 +2545,9 @@
       <c r="B63" t="s">
         <v>11</v>
       </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
       <c r="D63" s="2">
         <v>44927</v>
       </c>
@@ -2391,6 +2577,9 @@
       <c r="B64" t="s">
         <v>11</v>
       </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
       <c r="D64" s="2">
         <v>44927</v>
       </c>
@@ -2420,6 +2609,9 @@
       <c r="B65" t="s">
         <v>11</v>
       </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
       <c r="D65" s="2">
         <v>44927</v>
       </c>
@@ -2443,6 +2635,9 @@
       <c r="B66" t="s">
         <v>11</v>
       </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
       <c r="D66" s="2">
         <v>44896</v>
       </c>
@@ -2472,6 +2667,9 @@
       <c r="B67" t="s">
         <v>11</v>
       </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
       <c r="D67" s="2">
         <v>44896</v>
       </c>
@@ -2501,6 +2699,9 @@
       <c r="B68" t="s">
         <v>11</v>
       </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
       <c r="D68" s="2">
         <v>44896</v>
       </c>
@@ -2530,6 +2731,9 @@
       <c r="B69" t="s">
         <v>11</v>
       </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
       <c r="D69" s="2">
         <v>44896</v>
       </c>
@@ -2559,6 +2763,9 @@
       <c r="B70" t="s">
         <v>11</v>
       </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
       <c r="D70" s="2">
         <v>44896</v>
       </c>
@@ -2588,6 +2795,9 @@
       <c r="B71" t="s">
         <v>11</v>
       </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
       <c r="D71" s="2">
         <v>44896</v>
       </c>
@@ -2617,6 +2827,9 @@
       <c r="B72" t="s">
         <v>11</v>
       </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
       <c r="D72" s="2">
         <v>44896</v>
       </c>
@@ -2646,6 +2859,9 @@
       <c r="B73" t="s">
         <v>11</v>
       </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
       <c r="D73" s="2">
         <v>44896</v>
       </c>
@@ -2666,6 +2882,9 @@
       <c r="B74" t="s">
         <v>11</v>
       </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
       <c r="D74" s="2">
         <v>44896</v>
       </c>
@@ -2695,6 +2914,9 @@
       <c r="B75" t="s">
         <v>11</v>
       </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
       <c r="D75" s="2">
         <v>44896</v>
       </c>
@@ -2724,6 +2946,9 @@
       <c r="B76" t="s">
         <v>11</v>
       </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
       <c r="D76" s="2">
         <v>44896</v>
       </c>
@@ -2753,6 +2978,9 @@
       <c r="B77" t="s">
         <v>11</v>
       </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
       <c r="D77" s="2">
         <v>44896</v>
       </c>
@@ -2782,6 +3010,9 @@
       <c r="B78" t="s">
         <v>11</v>
       </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
       <c r="D78" s="2">
         <v>44896</v>
       </c>
@@ -2811,6 +3042,9 @@
       <c r="B79" t="s">
         <v>11</v>
       </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
       <c r="D79" s="2">
         <v>44896</v>
       </c>
@@ -2840,6 +3074,9 @@
       <c r="B80" t="s">
         <v>11</v>
       </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
       <c r="D80" s="2">
         <v>44896</v>
       </c>
@@ -2869,6 +3106,9 @@
       <c r="B81" t="s">
         <v>11</v>
       </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
       <c r="D81" s="2">
         <v>44896</v>
       </c>
@@ -2892,6 +3132,9 @@
       <c r="B82" t="s">
         <v>11</v>
       </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
       <c r="D82" s="2">
         <v>44866</v>
       </c>
@@ -2921,6 +3164,9 @@
       <c r="B83" t="s">
         <v>11</v>
       </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
       <c r="D83" s="2">
         <v>44866</v>
       </c>
@@ -2950,6 +3196,9 @@
       <c r="B84" t="s">
         <v>11</v>
       </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
       <c r="D84" s="2">
         <v>44866</v>
       </c>
@@ -2979,6 +3228,9 @@
       <c r="B85" t="s">
         <v>11</v>
       </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
       <c r="D85" s="2">
         <v>44866</v>
       </c>
@@ -3008,6 +3260,9 @@
       <c r="B86" t="s">
         <v>11</v>
       </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
       <c r="D86" s="2">
         <v>44866</v>
       </c>
@@ -3037,6 +3292,9 @@
       <c r="B87" t="s">
         <v>11</v>
       </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
       <c r="D87" s="2">
         <v>44866</v>
       </c>
@@ -3066,6 +3324,9 @@
       <c r="B88" t="s">
         <v>11</v>
       </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
       <c r="D88" s="2">
         <v>44866</v>
       </c>
@@ -3095,6 +3356,9 @@
       <c r="B89" t="s">
         <v>11</v>
       </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
       <c r="D89" s="2">
         <v>44866</v>
       </c>
@@ -3115,6 +3379,9 @@
       <c r="B90" t="s">
         <v>11</v>
       </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
       <c r="D90" s="2">
         <v>44866</v>
       </c>
@@ -3144,6 +3411,9 @@
       <c r="B91" t="s">
         <v>11</v>
       </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
       <c r="D91" s="2">
         <v>44866</v>
       </c>
@@ -3173,6 +3443,9 @@
       <c r="B92" t="s">
         <v>11</v>
       </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
       <c r="D92" s="2">
         <v>44866</v>
       </c>
@@ -3202,6 +3475,9 @@
       <c r="B93" t="s">
         <v>11</v>
       </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
       <c r="D93" s="2">
         <v>44866</v>
       </c>
@@ -3231,6 +3507,9 @@
       <c r="B94" t="s">
         <v>11</v>
       </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
       <c r="D94" s="2">
         <v>44866</v>
       </c>
@@ -3260,6 +3539,9 @@
       <c r="B95" t="s">
         <v>11</v>
       </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
       <c r="D95" s="2">
         <v>44866</v>
       </c>
@@ -3289,6 +3571,9 @@
       <c r="B96" t="s">
         <v>11</v>
       </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
       <c r="D96" s="2">
         <v>44866</v>
       </c>
@@ -3318,6 +3603,9 @@
       <c r="B97" t="s">
         <v>11</v>
       </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
       <c r="D97" s="2">
         <v>44866</v>
       </c>
@@ -3341,6 +3629,9 @@
       <c r="B98" t="s">
         <v>11</v>
       </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
       <c r="D98" s="2">
         <v>44835</v>
       </c>
@@ -3370,6 +3661,9 @@
       <c r="B99" t="s">
         <v>11</v>
       </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
       <c r="D99" s="2">
         <v>44835</v>
       </c>
@@ -3399,6 +3693,9 @@
       <c r="B100" t="s">
         <v>11</v>
       </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
       <c r="D100" s="2">
         <v>44835</v>
       </c>
@@ -3428,6 +3725,9 @@
       <c r="B101" t="s">
         <v>11</v>
       </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
       <c r="D101" s="2">
         <v>44835</v>
       </c>
@@ -3457,6 +3757,9 @@
       <c r="B102" t="s">
         <v>11</v>
       </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
       <c r="D102" s="2">
         <v>44835</v>
       </c>
@@ -3486,6 +3789,9 @@
       <c r="B103" t="s">
         <v>11</v>
       </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
       <c r="D103" s="2">
         <v>44835</v>
       </c>
@@ -3515,6 +3821,9 @@
       <c r="B104" t="s">
         <v>11</v>
       </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
       <c r="D104" s="2">
         <v>44835</v>
       </c>
@@ -3544,6 +3853,9 @@
       <c r="B105" t="s">
         <v>11</v>
       </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
       <c r="D105" s="2">
         <v>44835</v>
       </c>
@@ -3573,6 +3885,9 @@
       <c r="B106" t="s">
         <v>11</v>
       </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
       <c r="D106" s="2">
         <v>44835</v>
       </c>
@@ -3602,6 +3917,9 @@
       <c r="B107" t="s">
         <v>11</v>
       </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
       <c r="D107" s="2">
         <v>44835</v>
       </c>
@@ -3631,6 +3949,9 @@
       <c r="B108" t="s">
         <v>11</v>
       </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
       <c r="D108" s="2">
         <v>44835</v>
       </c>
@@ -3660,6 +3981,9 @@
       <c r="B109" t="s">
         <v>11</v>
       </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
       <c r="D109" s="2">
         <v>44835</v>
       </c>
@@ -3689,6 +4013,9 @@
       <c r="B110" t="s">
         <v>11</v>
       </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
       <c r="D110" s="2">
         <v>44835</v>
       </c>
@@ -3718,6 +4045,9 @@
       <c r="B111" t="s">
         <v>11</v>
       </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
       <c r="D111" s="2">
         <v>44835</v>
       </c>
@@ -3747,6 +4077,9 @@
       <c r="B112" t="s">
         <v>11</v>
       </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
       <c r="D112" s="2">
         <v>44835</v>
       </c>
@@ -3776,6 +4109,9 @@
       <c r="B113" t="s">
         <v>11</v>
       </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
       <c r="D113" s="2">
         <v>44835</v>
       </c>
@@ -3799,6 +4135,9 @@
       <c r="B114" t="s">
         <v>11</v>
       </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
       <c r="D114" s="2">
         <v>44805</v>
       </c>
@@ -3828,6 +4167,9 @@
       <c r="B115" t="s">
         <v>11</v>
       </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
       <c r="D115" s="2">
         <v>44805</v>
       </c>
@@ -3857,6 +4199,9 @@
       <c r="B116" t="s">
         <v>11</v>
       </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
       <c r="D116" s="2">
         <v>44805</v>
       </c>
@@ -3886,6 +4231,9 @@
       <c r="B117" t="s">
         <v>11</v>
       </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
       <c r="D117" s="2">
         <v>44805</v>
       </c>
@@ -3915,6 +4263,9 @@
       <c r="B118" t="s">
         <v>11</v>
       </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
       <c r="D118" s="2">
         <v>44805</v>
       </c>
@@ -3944,6 +4295,9 @@
       <c r="B119" t="s">
         <v>11</v>
       </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
       <c r="D119" s="2">
         <v>44805</v>
       </c>
@@ -3973,6 +4327,9 @@
       <c r="B120" t="s">
         <v>11</v>
       </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
       <c r="D120" s="2">
         <v>44805</v>
       </c>
@@ -4002,6 +4359,9 @@
       <c r="B121" t="s">
         <v>11</v>
       </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
       <c r="D121" s="2">
         <v>44805</v>
       </c>
@@ -4031,6 +4391,9 @@
       <c r="B122" t="s">
         <v>11</v>
       </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
       <c r="D122" s="2">
         <v>44805</v>
       </c>
@@ -4060,6 +4423,9 @@
       <c r="B123" t="s">
         <v>11</v>
       </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
       <c r="D123" s="2">
         <v>44805</v>
       </c>
@@ -4089,6 +4455,9 @@
       <c r="B124" t="s">
         <v>11</v>
       </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
       <c r="D124" s="2">
         <v>44805</v>
       </c>
@@ -4118,6 +4487,9 @@
       <c r="B125" t="s">
         <v>11</v>
       </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
       <c r="D125" s="2">
         <v>44805</v>
       </c>
@@ -4147,6 +4519,9 @@
       <c r="B126" t="s">
         <v>11</v>
       </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
       <c r="D126" s="2">
         <v>44805</v>
       </c>
@@ -4176,6 +4551,9 @@
       <c r="B127" t="s">
         <v>11</v>
       </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
       <c r="D127" s="2">
         <v>44805</v>
       </c>
@@ -4205,6 +4583,9 @@
       <c r="B128" t="s">
         <v>11</v>
       </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
       <c r="D128" s="2">
         <v>44805</v>
       </c>
@@ -4234,6 +4615,9 @@
       <c r="B129" t="s">
         <v>11</v>
       </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
       <c r="D129" s="2">
         <v>44805</v>
       </c>
@@ -4257,6 +4641,9 @@
       <c r="B130" t="s">
         <v>11</v>
       </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
       <c r="D130" s="2">
         <v>44774</v>
       </c>
@@ -4286,6 +4673,9 @@
       <c r="B131" t="s">
         <v>11</v>
       </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
       <c r="D131" s="2">
         <v>44774</v>
       </c>
@@ -4315,6 +4705,9 @@
       <c r="B132" t="s">
         <v>11</v>
       </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
       <c r="D132" s="2">
         <v>44774</v>
       </c>
@@ -4344,6 +4737,9 @@
       <c r="B133" t="s">
         <v>11</v>
       </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
       <c r="D133" s="2">
         <v>44774</v>
       </c>
@@ -4373,6 +4769,9 @@
       <c r="B134" t="s">
         <v>11</v>
       </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
       <c r="D134" s="2">
         <v>44774</v>
       </c>
@@ -4402,6 +4801,9 @@
       <c r="B135" t="s">
         <v>11</v>
       </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
       <c r="D135" s="2">
         <v>44774</v>
       </c>
@@ -4431,6 +4833,9 @@
       <c r="B136" t="s">
         <v>11</v>
       </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
       <c r="D136" s="2">
         <v>44774</v>
       </c>
@@ -4460,6 +4865,9 @@
       <c r="B137" t="s">
         <v>11</v>
       </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
       <c r="D137" s="2">
         <v>44774</v>
       </c>
@@ -4489,6 +4897,9 @@
       <c r="B138" t="s">
         <v>11</v>
       </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
       <c r="D138" s="2">
         <v>44774</v>
       </c>
@@ -4518,6 +4929,9 @@
       <c r="B139" t="s">
         <v>11</v>
       </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
       <c r="D139" s="2">
         <v>44774</v>
       </c>
@@ -4547,6 +4961,9 @@
       <c r="B140" t="s">
         <v>11</v>
       </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
       <c r="D140" s="2">
         <v>44774</v>
       </c>
@@ -4576,6 +4993,9 @@
       <c r="B141" t="s">
         <v>11</v>
       </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
       <c r="D141" s="2">
         <v>44774</v>
       </c>
@@ -4605,6 +5025,9 @@
       <c r="B142" t="s">
         <v>11</v>
       </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
       <c r="D142" s="2">
         <v>44774</v>
       </c>
@@ -4634,6 +5057,9 @@
       <c r="B143" t="s">
         <v>11</v>
       </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
       <c r="D143" s="2">
         <v>44774</v>
       </c>
@@ -4663,6 +5089,9 @@
       <c r="B144" t="s">
         <v>11</v>
       </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
       <c r="D144" s="2">
         <v>44774</v>
       </c>
@@ -4692,6 +5121,9 @@
       <c r="B145" t="s">
         <v>11</v>
       </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
       <c r="D145" s="2">
         <v>44774</v>
       </c>
@@ -4715,6 +5147,9 @@
       <c r="B146" t="s">
         <v>11</v>
       </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
       <c r="D146" s="2">
         <v>44743</v>
       </c>
@@ -4744,6 +5179,9 @@
       <c r="B147" t="s">
         <v>11</v>
       </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
       <c r="D147" s="2">
         <v>44743</v>
       </c>
@@ -4773,6 +5211,9 @@
       <c r="B148" t="s">
         <v>11</v>
       </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
       <c r="D148" s="2">
         <v>44743</v>
       </c>
@@ -4802,6 +5243,9 @@
       <c r="B149" t="s">
         <v>11</v>
       </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
       <c r="D149" s="2">
         <v>44743</v>
       </c>
@@ -4831,6 +5275,9 @@
       <c r="B150" t="s">
         <v>11</v>
       </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
       <c r="D150" s="2">
         <v>44743</v>
       </c>
@@ -4860,6 +5307,9 @@
       <c r="B151" t="s">
         <v>11</v>
       </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
       <c r="D151" s="2">
         <v>44743</v>
       </c>
@@ -4889,6 +5339,9 @@
       <c r="B152" t="s">
         <v>11</v>
       </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
       <c r="D152" s="2">
         <v>44743</v>
       </c>
@@ -4918,6 +5371,9 @@
       <c r="B153" t="s">
         <v>11</v>
       </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
       <c r="D153" s="2">
         <v>44743</v>
       </c>
@@ -4947,6 +5403,9 @@
       <c r="B154" t="s">
         <v>11</v>
       </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
       <c r="D154" s="2">
         <v>44743</v>
       </c>
@@ -4976,6 +5435,9 @@
       <c r="B155" t="s">
         <v>11</v>
       </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
       <c r="D155" s="2">
         <v>44743</v>
       </c>
@@ -5005,6 +5467,9 @@
       <c r="B156" t="s">
         <v>11</v>
       </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
       <c r="D156" s="2">
         <v>44743</v>
       </c>
@@ -5034,6 +5499,9 @@
       <c r="B157" t="s">
         <v>11</v>
       </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
       <c r="D157" s="2">
         <v>44743</v>
       </c>
@@ -5063,6 +5531,9 @@
       <c r="B158" t="s">
         <v>11</v>
       </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
       <c r="D158" s="2">
         <v>44743</v>
       </c>
@@ -5092,6 +5563,9 @@
       <c r="B159" t="s">
         <v>11</v>
       </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
       <c r="D159" s="2">
         <v>44743</v>
       </c>
@@ -5121,6 +5595,9 @@
       <c r="B160" t="s">
         <v>11</v>
       </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
       <c r="D160" s="2">
         <v>44743</v>
       </c>
@@ -5150,6 +5627,9 @@
       <c r="B161" t="s">
         <v>11</v>
       </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
       <c r="D161" s="2">
         <v>44743</v>
       </c>
@@ -5173,6 +5653,9 @@
       <c r="B162" t="s">
         <v>11</v>
       </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
       <c r="D162" s="2">
         <v>44713</v>
       </c>
@@ -5202,6 +5685,9 @@
       <c r="B163" t="s">
         <v>11</v>
       </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
       <c r="D163" s="2">
         <v>44713</v>
       </c>
@@ -5231,6 +5717,9 @@
       <c r="B164" t="s">
         <v>11</v>
       </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
       <c r="D164" s="2">
         <v>44713</v>
       </c>
@@ -5260,6 +5749,9 @@
       <c r="B165" t="s">
         <v>11</v>
       </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
       <c r="D165" s="2">
         <v>44713</v>
       </c>
@@ -5289,6 +5781,9 @@
       <c r="B166" t="s">
         <v>11</v>
       </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
       <c r="D166" s="2">
         <v>44713</v>
       </c>
@@ -5318,6 +5813,9 @@
       <c r="B167" t="s">
         <v>11</v>
       </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
       <c r="D167" s="2">
         <v>44713</v>
       </c>
@@ -5347,6 +5845,9 @@
       <c r="B168" t="s">
         <v>11</v>
       </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
       <c r="D168" s="2">
         <v>44713</v>
       </c>
@@ -5376,6 +5877,9 @@
       <c r="B169" t="s">
         <v>11</v>
       </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
       <c r="D169" s="2">
         <v>44713</v>
       </c>
@@ -5405,6 +5909,9 @@
       <c r="B170" t="s">
         <v>11</v>
       </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
       <c r="D170" s="2">
         <v>44713</v>
       </c>
@@ -5434,6 +5941,9 @@
       <c r="B171" t="s">
         <v>11</v>
       </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
       <c r="D171" s="2">
         <v>44713</v>
       </c>
@@ -5463,6 +5973,9 @@
       <c r="B172" t="s">
         <v>11</v>
       </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
       <c r="D172" s="2">
         <v>44713</v>
       </c>
@@ -5492,6 +6005,9 @@
       <c r="B173" t="s">
         <v>11</v>
       </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
       <c r="D173" s="2">
         <v>44713</v>
       </c>
@@ -5521,6 +6037,9 @@
       <c r="B174" t="s">
         <v>11</v>
       </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
       <c r="D174" s="2">
         <v>44713</v>
       </c>
@@ -5550,6 +6069,9 @@
       <c r="B175" t="s">
         <v>11</v>
       </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
       <c r="D175" s="2">
         <v>44713</v>
       </c>
@@ -5579,6 +6101,9 @@
       <c r="B176" t="s">
         <v>11</v>
       </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
       <c r="D176" s="2">
         <v>44713</v>
       </c>
@@ -5608,6 +6133,9 @@
       <c r="B177" t="s">
         <v>11</v>
       </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
       <c r="D177" s="2">
         <v>44713</v>
       </c>
@@ -5631,6 +6159,9 @@
       <c r="B178" t="s">
         <v>11</v>
       </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
       <c r="D178" s="2">
         <v>44682</v>
       </c>
@@ -5660,6 +6191,9 @@
       <c r="B179" t="s">
         <v>11</v>
       </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
       <c r="D179" s="2">
         <v>44682</v>
       </c>
@@ -5689,6 +6223,9 @@
       <c r="B180" t="s">
         <v>11</v>
       </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
       <c r="D180" s="2">
         <v>44682</v>
       </c>
@@ -5718,6 +6255,9 @@
       <c r="B181" t="s">
         <v>11</v>
       </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
       <c r="D181" s="2">
         <v>44682</v>
       </c>
@@ -5747,6 +6287,9 @@
       <c r="B182" t="s">
         <v>11</v>
       </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
       <c r="D182" s="2">
         <v>44682</v>
       </c>
@@ -5776,6 +6319,9 @@
       <c r="B183" t="s">
         <v>11</v>
       </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
       <c r="D183" s="2">
         <v>44682</v>
       </c>
@@ -5805,6 +6351,9 @@
       <c r="B184" t="s">
         <v>11</v>
       </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
       <c r="D184" s="2">
         <v>44682</v>
       </c>
@@ -5834,6 +6383,9 @@
       <c r="B185" t="s">
         <v>11</v>
       </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
       <c r="D185" s="2">
         <v>44682</v>
       </c>
@@ -5863,6 +6415,9 @@
       <c r="B186" t="s">
         <v>11</v>
       </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
       <c r="D186" s="2">
         <v>44682</v>
       </c>
@@ -5892,6 +6447,9 @@
       <c r="B187" t="s">
         <v>11</v>
       </c>
+      <c r="C187" t="s">
+        <v>11</v>
+      </c>
       <c r="D187" s="2">
         <v>44682</v>
       </c>
@@ -5921,6 +6479,9 @@
       <c r="B188" t="s">
         <v>11</v>
       </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
       <c r="D188" s="2">
         <v>44682</v>
       </c>
@@ -5950,6 +6511,9 @@
       <c r="B189" t="s">
         <v>11</v>
       </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
       <c r="D189" s="2">
         <v>44682</v>
       </c>
@@ -5979,6 +6543,9 @@
       <c r="B190" t="s">
         <v>11</v>
       </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
       <c r="D190" s="2">
         <v>44682</v>
       </c>
@@ -6008,6 +6575,9 @@
       <c r="B191" t="s">
         <v>11</v>
       </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
       <c r="D191" s="2">
         <v>44682</v>
       </c>
@@ -6037,6 +6607,9 @@
       <c r="B192" t="s">
         <v>11</v>
       </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
       <c r="D192" s="2">
         <v>44682</v>
       </c>
@@ -6066,6 +6639,9 @@
       <c r="B193" t="s">
         <v>11</v>
       </c>
+      <c r="C193" t="s">
+        <v>11</v>
+      </c>
       <c r="D193" s="2">
         <v>44682</v>
       </c>
@@ -6089,6 +6665,9 @@
       <c r="B194" t="s">
         <v>11</v>
       </c>
+      <c r="C194" t="s">
+        <v>11</v>
+      </c>
       <c r="D194" s="2">
         <v>44652</v>
       </c>
@@ -6118,6 +6697,9 @@
       <c r="B195" t="s">
         <v>11</v>
       </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
       <c r="D195" s="2">
         <v>44652</v>
       </c>
@@ -6147,6 +6729,9 @@
       <c r="B196" t="s">
         <v>11</v>
       </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
       <c r="D196" s="2">
         <v>44652</v>
       </c>
@@ -6176,6 +6761,9 @@
       <c r="B197" t="s">
         <v>11</v>
       </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
       <c r="D197" s="2">
         <v>44652</v>
       </c>
@@ -6205,6 +6793,9 @@
       <c r="B198" t="s">
         <v>11</v>
       </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
       <c r="D198" s="2">
         <v>44652</v>
       </c>
@@ -6234,6 +6825,9 @@
       <c r="B199" t="s">
         <v>11</v>
       </c>
+      <c r="C199" t="s">
+        <v>11</v>
+      </c>
       <c r="D199" s="2">
         <v>44652</v>
       </c>
@@ -6263,6 +6857,9 @@
       <c r="B200" t="s">
         <v>11</v>
       </c>
+      <c r="C200" t="s">
+        <v>11</v>
+      </c>
       <c r="D200" s="2">
         <v>44652</v>
       </c>
@@ -6292,6 +6889,9 @@
       <c r="B201" t="s">
         <v>11</v>
       </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
       <c r="D201" s="2">
         <v>44652</v>
       </c>
@@ -6321,6 +6921,9 @@
       <c r="B202" t="s">
         <v>11</v>
       </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
       <c r="D202" s="2">
         <v>44652</v>
       </c>
@@ -6350,6 +6953,9 @@
       <c r="B203" t="s">
         <v>11</v>
       </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
       <c r="D203" s="2">
         <v>44652</v>
       </c>
@@ -6379,6 +6985,9 @@
       <c r="B204" t="s">
         <v>11</v>
       </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
       <c r="D204" s="2">
         <v>44652</v>
       </c>
@@ -6408,6 +7017,9 @@
       <c r="B205" t="s">
         <v>11</v>
       </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
       <c r="D205" s="2">
         <v>44652</v>
       </c>
@@ -6437,6 +7049,9 @@
       <c r="B206" t="s">
         <v>11</v>
       </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
       <c r="D206" s="2">
         <v>44652</v>
       </c>
@@ -6466,6 +7081,9 @@
       <c r="B207" t="s">
         <v>11</v>
       </c>
+      <c r="C207" t="s">
+        <v>11</v>
+      </c>
       <c r="D207" s="2">
         <v>44652</v>
       </c>
@@ -6495,6 +7113,9 @@
       <c r="B208" t="s">
         <v>11</v>
       </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
       <c r="D208" s="2">
         <v>44652</v>
       </c>
@@ -6524,6 +7145,9 @@
       <c r="B209" t="s">
         <v>11</v>
       </c>
+      <c r="C209" t="s">
+        <v>11</v>
+      </c>
       <c r="D209" s="2">
         <v>44652</v>
       </c>
@@ -6547,6 +7171,9 @@
       <c r="B210" t="s">
         <v>11</v>
       </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
       <c r="D210" s="2">
         <v>44621</v>
       </c>
@@ -6576,6 +7203,9 @@
       <c r="B211" t="s">
         <v>11</v>
       </c>
+      <c r="C211" t="s">
+        <v>11</v>
+      </c>
       <c r="D211" s="2">
         <v>44621</v>
       </c>
@@ -6605,6 +7235,9 @@
       <c r="B212" t="s">
         <v>11</v>
       </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
       <c r="D212" s="2">
         <v>44621</v>
       </c>
@@ -6634,6 +7267,9 @@
       <c r="B213" t="s">
         <v>11</v>
       </c>
+      <c r="C213" t="s">
+        <v>11</v>
+      </c>
       <c r="D213" s="2">
         <v>44621</v>
       </c>
@@ -6663,6 +7299,9 @@
       <c r="B214" t="s">
         <v>11</v>
       </c>
+      <c r="C214" t="s">
+        <v>11</v>
+      </c>
       <c r="D214" s="2">
         <v>44621</v>
       </c>
@@ -6692,6 +7331,9 @@
       <c r="B215" t="s">
         <v>11</v>
       </c>
+      <c r="C215" t="s">
+        <v>11</v>
+      </c>
       <c r="D215" s="2">
         <v>44621</v>
       </c>
@@ -6721,6 +7363,9 @@
       <c r="B216" t="s">
         <v>11</v>
       </c>
+      <c r="C216" t="s">
+        <v>11</v>
+      </c>
       <c r="D216" s="2">
         <v>44621</v>
       </c>
@@ -6750,6 +7395,9 @@
       <c r="B217" t="s">
         <v>11</v>
       </c>
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
       <c r="D217" s="2">
         <v>44621</v>
       </c>
@@ -6779,6 +7427,9 @@
       <c r="B218" t="s">
         <v>11</v>
       </c>
+      <c r="C218" t="s">
+        <v>11</v>
+      </c>
       <c r="D218" s="2">
         <v>44621</v>
       </c>
@@ -6808,6 +7459,9 @@
       <c r="B219" t="s">
         <v>11</v>
       </c>
+      <c r="C219" t="s">
+        <v>11</v>
+      </c>
       <c r="D219" s="2">
         <v>44621</v>
       </c>
@@ -6837,6 +7491,9 @@
       <c r="B220" t="s">
         <v>11</v>
       </c>
+      <c r="C220" t="s">
+        <v>11</v>
+      </c>
       <c r="D220" s="2">
         <v>44621</v>
       </c>
@@ -6866,6 +7523,9 @@
       <c r="B221" t="s">
         <v>11</v>
       </c>
+      <c r="C221" t="s">
+        <v>11</v>
+      </c>
       <c r="D221" s="2">
         <v>44621</v>
       </c>
@@ -6895,6 +7555,9 @@
       <c r="B222" t="s">
         <v>11</v>
       </c>
+      <c r="C222" t="s">
+        <v>11</v>
+      </c>
       <c r="D222" s="2">
         <v>44621</v>
       </c>
@@ -6924,6 +7587,9 @@
       <c r="B223" t="s">
         <v>11</v>
       </c>
+      <c r="C223" t="s">
+        <v>11</v>
+      </c>
       <c r="D223" s="2">
         <v>44621</v>
       </c>
@@ -6944,6 +7610,9 @@
       <c r="B224" t="s">
         <v>11</v>
       </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
       <c r="D224" s="2">
         <v>44621</v>
       </c>
@@ -6973,6 +7642,9 @@
       <c r="B225" t="s">
         <v>11</v>
       </c>
+      <c r="C225" t="s">
+        <v>11</v>
+      </c>
       <c r="D225" s="2">
         <v>44621</v>
       </c>
@@ -6996,6 +7668,9 @@
       <c r="B226" t="s">
         <v>11</v>
       </c>
+      <c r="C226" t="s">
+        <v>11</v>
+      </c>
       <c r="D226" s="2">
         <v>44593</v>
       </c>
@@ -7025,6 +7700,9 @@
       <c r="B227" t="s">
         <v>11</v>
       </c>
+      <c r="C227" t="s">
+        <v>11</v>
+      </c>
       <c r="D227" s="2">
         <v>44593</v>
       </c>
@@ -7054,6 +7732,9 @@
       <c r="B228" t="s">
         <v>11</v>
       </c>
+      <c r="C228" t="s">
+        <v>11</v>
+      </c>
       <c r="D228" s="2">
         <v>44593</v>
       </c>
@@ -7083,6 +7764,9 @@
       <c r="B229" t="s">
         <v>11</v>
       </c>
+      <c r="C229" t="s">
+        <v>11</v>
+      </c>
       <c r="D229" s="2">
         <v>44593</v>
       </c>
@@ -7112,6 +7796,9 @@
       <c r="B230" t="s">
         <v>11</v>
       </c>
+      <c r="C230" t="s">
+        <v>11</v>
+      </c>
       <c r="D230" s="2">
         <v>44593</v>
       </c>
@@ -7141,6 +7828,9 @@
       <c r="B231" t="s">
         <v>11</v>
       </c>
+      <c r="C231" t="s">
+        <v>11</v>
+      </c>
       <c r="D231" s="2">
         <v>44593</v>
       </c>
@@ -7170,6 +7860,9 @@
       <c r="B232" t="s">
         <v>11</v>
       </c>
+      <c r="C232" t="s">
+        <v>11</v>
+      </c>
       <c r="D232" s="2">
         <v>44593</v>
       </c>
@@ -7199,6 +7892,9 @@
       <c r="B233" t="s">
         <v>11</v>
       </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
       <c r="D233" s="2">
         <v>44593</v>
       </c>
@@ -7228,6 +7924,9 @@
       <c r="B234" t="s">
         <v>11</v>
       </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
       <c r="D234" s="2">
         <v>44593</v>
       </c>
@@ -7257,6 +7956,9 @@
       <c r="B235" t="s">
         <v>11</v>
       </c>
+      <c r="C235" t="s">
+        <v>11</v>
+      </c>
       <c r="D235" s="2">
         <v>44593</v>
       </c>
@@ -7286,6 +7988,9 @@
       <c r="B236" t="s">
         <v>11</v>
       </c>
+      <c r="C236" t="s">
+        <v>11</v>
+      </c>
       <c r="D236" s="2">
         <v>44593</v>
       </c>
@@ -7315,6 +8020,9 @@
       <c r="B237" t="s">
         <v>11</v>
       </c>
+      <c r="C237" t="s">
+        <v>11</v>
+      </c>
       <c r="D237" s="2">
         <v>44593</v>
       </c>
@@ -7344,6 +8052,9 @@
       <c r="B238" t="s">
         <v>11</v>
       </c>
+      <c r="C238" t="s">
+        <v>11</v>
+      </c>
       <c r="D238" s="2">
         <v>44593</v>
       </c>
@@ -7373,6 +8084,9 @@
       <c r="B239" t="s">
         <v>11</v>
       </c>
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
       <c r="D239" s="2">
         <v>44593</v>
       </c>
@@ -7393,6 +8107,9 @@
       <c r="B240" t="s">
         <v>11</v>
       </c>
+      <c r="C240" t="s">
+        <v>11</v>
+      </c>
       <c r="D240" s="2">
         <v>44593</v>
       </c>
@@ -7422,6 +8139,9 @@
       <c r="B241" t="s">
         <v>11</v>
       </c>
+      <c r="C241" t="s">
+        <v>11</v>
+      </c>
       <c r="D241" s="2">
         <v>44593</v>
       </c>
@@ -7445,6 +8165,9 @@
       <c r="B242" t="s">
         <v>11</v>
       </c>
+      <c r="C242" t="s">
+        <v>11</v>
+      </c>
       <c r="D242" s="2">
         <v>44562</v>
       </c>
@@ -7474,6 +8197,9 @@
       <c r="B243" t="s">
         <v>11</v>
       </c>
+      <c r="C243" t="s">
+        <v>11</v>
+      </c>
       <c r="D243" s="2">
         <v>44562</v>
       </c>
@@ -7503,6 +8229,9 @@
       <c r="B244" t="s">
         <v>11</v>
       </c>
+      <c r="C244" t="s">
+        <v>11</v>
+      </c>
       <c r="D244" s="2">
         <v>44562</v>
       </c>
@@ -7532,6 +8261,9 @@
       <c r="B245" t="s">
         <v>11</v>
       </c>
+      <c r="C245" t="s">
+        <v>11</v>
+      </c>
       <c r="D245" s="2">
         <v>44562</v>
       </c>
@@ -7561,6 +8293,9 @@
       <c r="B246" t="s">
         <v>11</v>
       </c>
+      <c r="C246" t="s">
+        <v>11</v>
+      </c>
       <c r="D246" s="2">
         <v>44562</v>
       </c>
@@ -7590,6 +8325,9 @@
       <c r="B247" t="s">
         <v>11</v>
       </c>
+      <c r="C247" t="s">
+        <v>11</v>
+      </c>
       <c r="D247" s="2">
         <v>44562</v>
       </c>
@@ -7619,6 +8357,9 @@
       <c r="B248" t="s">
         <v>11</v>
       </c>
+      <c r="C248" t="s">
+        <v>11</v>
+      </c>
       <c r="D248" s="2">
         <v>44562</v>
       </c>
@@ -7648,6 +8389,9 @@
       <c r="B249" t="s">
         <v>11</v>
       </c>
+      <c r="C249" t="s">
+        <v>11</v>
+      </c>
       <c r="D249" s="2">
         <v>44562</v>
       </c>
@@ -7677,6 +8421,9 @@
       <c r="B250" t="s">
         <v>11</v>
       </c>
+      <c r="C250" t="s">
+        <v>11</v>
+      </c>
       <c r="D250" s="2">
         <v>44562</v>
       </c>
@@ -7706,6 +8453,9 @@
       <c r="B251" t="s">
         <v>11</v>
       </c>
+      <c r="C251" t="s">
+        <v>11</v>
+      </c>
       <c r="D251" s="2">
         <v>44562</v>
       </c>
@@ -7735,6 +8485,9 @@
       <c r="B252" t="s">
         <v>11</v>
       </c>
+      <c r="C252" t="s">
+        <v>11</v>
+      </c>
       <c r="D252" s="2">
         <v>44562</v>
       </c>
@@ -7764,6 +8517,9 @@
       <c r="B253" t="s">
         <v>11</v>
       </c>
+      <c r="C253" t="s">
+        <v>11</v>
+      </c>
       <c r="D253" s="2">
         <v>44562</v>
       </c>
@@ -7793,6 +8549,9 @@
       <c r="B254" t="s">
         <v>11</v>
       </c>
+      <c r="C254" t="s">
+        <v>11</v>
+      </c>
       <c r="D254" s="2">
         <v>44562</v>
       </c>
@@ -7822,6 +8581,9 @@
       <c r="B255" t="s">
         <v>11</v>
       </c>
+      <c r="C255" t="s">
+        <v>11</v>
+      </c>
       <c r="D255" s="2">
         <v>44562</v>
       </c>
@@ -7842,6 +8604,9 @@
       <c r="B256" t="s">
         <v>11</v>
       </c>
+      <c r="C256" t="s">
+        <v>11</v>
+      </c>
       <c r="D256" s="2">
         <v>44562</v>
       </c>
@@ -7871,6 +8636,9 @@
       <c r="B257" t="s">
         <v>11</v>
       </c>
+      <c r="C257" t="s">
+        <v>11</v>
+      </c>
       <c r="D257" s="2">
         <v>44562</v>
       </c>
@@ -7894,6 +8662,9 @@
       <c r="B258" t="s">
         <v>11</v>
       </c>
+      <c r="C258" t="s">
+        <v>11</v>
+      </c>
       <c r="D258" s="2">
         <v>44531</v>
       </c>
@@ -7923,6 +8694,9 @@
       <c r="B259" t="s">
         <v>11</v>
       </c>
+      <c r="C259" t="s">
+        <v>11</v>
+      </c>
       <c r="D259" s="2">
         <v>44531</v>
       </c>
@@ -7952,6 +8726,9 @@
       <c r="B260" t="s">
         <v>11</v>
       </c>
+      <c r="C260" t="s">
+        <v>11</v>
+      </c>
       <c r="D260" s="2">
         <v>44531</v>
       </c>
@@ -7981,6 +8758,9 @@
       <c r="B261" t="s">
         <v>11</v>
       </c>
+      <c r="C261" t="s">
+        <v>11</v>
+      </c>
       <c r="D261" s="2">
         <v>44531</v>
       </c>
@@ -8010,6 +8790,9 @@
       <c r="B262" t="s">
         <v>11</v>
       </c>
+      <c r="C262" t="s">
+        <v>11</v>
+      </c>
       <c r="D262" s="2">
         <v>44531</v>
       </c>
@@ -8039,6 +8822,9 @@
       <c r="B263" t="s">
         <v>11</v>
       </c>
+      <c r="C263" t="s">
+        <v>11</v>
+      </c>
       <c r="D263" s="2">
         <v>44531</v>
       </c>
@@ -8068,6 +8854,9 @@
       <c r="B264" t="s">
         <v>11</v>
       </c>
+      <c r="C264" t="s">
+        <v>11</v>
+      </c>
       <c r="D264" s="2">
         <v>44531</v>
       </c>
@@ -8097,6 +8886,9 @@
       <c r="B265" t="s">
         <v>11</v>
       </c>
+      <c r="C265" t="s">
+        <v>11</v>
+      </c>
       <c r="D265" s="2">
         <v>44531</v>
       </c>
@@ -8126,6 +8918,9 @@
       <c r="B266" t="s">
         <v>11</v>
       </c>
+      <c r="C266" t="s">
+        <v>11</v>
+      </c>
       <c r="D266" s="2">
         <v>44531</v>
       </c>
@@ -8155,6 +8950,9 @@
       <c r="B267" t="s">
         <v>11</v>
       </c>
+      <c r="C267" t="s">
+        <v>11</v>
+      </c>
       <c r="D267" s="2">
         <v>44531</v>
       </c>
@@ -8184,6 +8982,9 @@
       <c r="B268" t="s">
         <v>11</v>
       </c>
+      <c r="C268" t="s">
+        <v>11</v>
+      </c>
       <c r="D268" s="2">
         <v>44531</v>
       </c>
@@ -8213,6 +9014,9 @@
       <c r="B269" t="s">
         <v>11</v>
       </c>
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
       <c r="D269" s="2">
         <v>44531</v>
       </c>
@@ -8242,6 +9046,9 @@
       <c r="B270" t="s">
         <v>11</v>
       </c>
+      <c r="C270" t="s">
+        <v>11</v>
+      </c>
       <c r="D270" s="2">
         <v>44531</v>
       </c>
@@ -8271,6 +9078,9 @@
       <c r="B271" t="s">
         <v>11</v>
       </c>
+      <c r="C271" t="s">
+        <v>11</v>
+      </c>
       <c r="D271" s="2">
         <v>44531</v>
       </c>
@@ -8300,6 +9110,9 @@
       <c r="B272" t="s">
         <v>11</v>
       </c>
+      <c r="C272" t="s">
+        <v>11</v>
+      </c>
       <c r="D272" s="2">
         <v>44531</v>
       </c>
@@ -8323,6 +9136,9 @@
       <c r="B273" t="s">
         <v>11</v>
       </c>
+      <c r="C273" t="s">
+        <v>11</v>
+      </c>
       <c r="D273" s="2">
         <v>44501</v>
       </c>
@@ -8352,6 +9168,9 @@
       <c r="B274" t="s">
         <v>11</v>
       </c>
+      <c r="C274" t="s">
+        <v>11</v>
+      </c>
       <c r="D274" s="2">
         <v>44501</v>
       </c>
@@ -8381,6 +9200,9 @@
       <c r="B275" t="s">
         <v>11</v>
       </c>
+      <c r="C275" t="s">
+        <v>11</v>
+      </c>
       <c r="D275" s="2">
         <v>44501</v>
       </c>
@@ -8410,6 +9232,9 @@
       <c r="B276" t="s">
         <v>11</v>
       </c>
+      <c r="C276" t="s">
+        <v>11</v>
+      </c>
       <c r="D276" s="2">
         <v>44501</v>
       </c>
@@ -8439,6 +9264,9 @@
       <c r="B277" t="s">
         <v>11</v>
       </c>
+      <c r="C277" t="s">
+        <v>11</v>
+      </c>
       <c r="D277" s="2">
         <v>44501</v>
       </c>
@@ -8468,6 +9296,9 @@
       <c r="B278" t="s">
         <v>11</v>
       </c>
+      <c r="C278" t="s">
+        <v>11</v>
+      </c>
       <c r="D278" s="2">
         <v>44501</v>
       </c>
@@ -8497,6 +9328,9 @@
       <c r="B279" t="s">
         <v>11</v>
       </c>
+      <c r="C279" t="s">
+        <v>11</v>
+      </c>
       <c r="D279" s="2">
         <v>44501</v>
       </c>
@@ -8526,6 +9360,9 @@
       <c r="B280" t="s">
         <v>11</v>
       </c>
+      <c r="C280" t="s">
+        <v>11</v>
+      </c>
       <c r="D280" s="2">
         <v>44501</v>
       </c>
@@ -8555,6 +9392,9 @@
       <c r="B281" t="s">
         <v>11</v>
       </c>
+      <c r="C281" t="s">
+        <v>11</v>
+      </c>
       <c r="D281" s="2">
         <v>44501</v>
       </c>
@@ -8584,6 +9424,9 @@
       <c r="B282" t="s">
         <v>11</v>
       </c>
+      <c r="C282" t="s">
+        <v>11</v>
+      </c>
       <c r="D282" s="2">
         <v>44501</v>
       </c>
@@ -8613,6 +9456,9 @@
       <c r="B283" t="s">
         <v>11</v>
       </c>
+      <c r="C283" t="s">
+        <v>11</v>
+      </c>
       <c r="D283" s="2">
         <v>44501</v>
       </c>
@@ -8642,6 +9488,9 @@
       <c r="B284" t="s">
         <v>11</v>
       </c>
+      <c r="C284" t="s">
+        <v>11</v>
+      </c>
       <c r="D284" s="2">
         <v>44501</v>
       </c>
@@ -8671,6 +9520,9 @@
       <c r="B285" t="s">
         <v>11</v>
       </c>
+      <c r="C285" t="s">
+        <v>11</v>
+      </c>
       <c r="D285" s="2">
         <v>44501</v>
       </c>
@@ -8700,6 +9552,9 @@
       <c r="B286" t="s">
         <v>11</v>
       </c>
+      <c r="C286" t="s">
+        <v>11</v>
+      </c>
       <c r="D286" s="2">
         <v>44501</v>
       </c>
@@ -8729,6 +9584,9 @@
       <c r="B287" t="s">
         <v>11</v>
       </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
       <c r="D287" s="2">
         <v>44501</v>
       </c>
@@ -8752,6 +9610,9 @@
       <c r="B288" t="s">
         <v>11</v>
       </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
       <c r="D288" s="2">
         <v>44470</v>
       </c>
@@ -8781,6 +9642,9 @@
       <c r="B289" t="s">
         <v>11</v>
       </c>
+      <c r="C289" t="s">
+        <v>11</v>
+      </c>
       <c r="D289" s="2">
         <v>44470</v>
       </c>
@@ -8810,6 +9674,9 @@
       <c r="B290" t="s">
         <v>11</v>
       </c>
+      <c r="C290" t="s">
+        <v>11</v>
+      </c>
       <c r="D290" s="2">
         <v>44470</v>
       </c>
@@ -8839,6 +9706,9 @@
       <c r="B291" t="s">
         <v>11</v>
       </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
       <c r="D291" s="2">
         <v>44470</v>
       </c>
@@ -8868,6 +9738,9 @@
       <c r="B292" t="s">
         <v>11</v>
       </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
       <c r="D292" s="2">
         <v>44470</v>
       </c>
@@ -8897,6 +9770,9 @@
       <c r="B293" t="s">
         <v>11</v>
       </c>
+      <c r="C293" t="s">
+        <v>11</v>
+      </c>
       <c r="D293" s="2">
         <v>44470</v>
       </c>
@@ -8926,6 +9802,9 @@
       <c r="B294" t="s">
         <v>11</v>
       </c>
+      <c r="C294" t="s">
+        <v>11</v>
+      </c>
       <c r="D294" s="2">
         <v>44470</v>
       </c>
@@ -8955,6 +9834,9 @@
       <c r="B295" t="s">
         <v>11</v>
       </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
       <c r="D295" s="2">
         <v>44470</v>
       </c>
@@ -8984,6 +9866,9 @@
       <c r="B296" t="s">
         <v>11</v>
       </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
       <c r="D296" s="2">
         <v>44470</v>
       </c>
@@ -9013,6 +9898,9 @@
       <c r="B297" t="s">
         <v>11</v>
       </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
       <c r="D297" s="2">
         <v>44470</v>
       </c>
@@ -9042,6 +9930,9 @@
       <c r="B298" t="s">
         <v>11</v>
       </c>
+      <c r="C298" t="s">
+        <v>11</v>
+      </c>
       <c r="D298" s="2">
         <v>44470</v>
       </c>
@@ -9071,6 +9962,9 @@
       <c r="B299" t="s">
         <v>11</v>
       </c>
+      <c r="C299" t="s">
+        <v>11</v>
+      </c>
       <c r="D299" s="2">
         <v>44470</v>
       </c>
@@ -9100,6 +9994,9 @@
       <c r="B300" t="s">
         <v>11</v>
       </c>
+      <c r="C300" t="s">
+        <v>11</v>
+      </c>
       <c r="D300" s="2">
         <v>44470</v>
       </c>
@@ -9129,6 +10026,9 @@
       <c r="B301" t="s">
         <v>11</v>
       </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
       <c r="D301" s="2">
         <v>44470</v>
       </c>
@@ -9158,6 +10058,9 @@
       <c r="B302" t="s">
         <v>11</v>
       </c>
+      <c r="C302" t="s">
+        <v>11</v>
+      </c>
       <c r="D302" s="2">
         <v>44470</v>
       </c>
@@ -9181,6 +10084,9 @@
       <c r="B303" t="s">
         <v>11</v>
       </c>
+      <c r="C303" t="s">
+        <v>11</v>
+      </c>
       <c r="D303" s="2">
         <v>44440</v>
       </c>
@@ -9210,6 +10116,9 @@
       <c r="B304" t="s">
         <v>11</v>
       </c>
+      <c r="C304" t="s">
+        <v>11</v>
+      </c>
       <c r="D304" s="2">
         <v>44440</v>
       </c>
@@ -9239,6 +10148,9 @@
       <c r="B305" t="s">
         <v>11</v>
       </c>
+      <c r="C305" t="s">
+        <v>11</v>
+      </c>
       <c r="D305" s="2">
         <v>44440</v>
       </c>
@@ -9268,6 +10180,9 @@
       <c r="B306" t="s">
         <v>11</v>
       </c>
+      <c r="C306" t="s">
+        <v>11</v>
+      </c>
       <c r="D306" s="2">
         <v>44440</v>
       </c>
@@ -9297,6 +10212,9 @@
       <c r="B307" t="s">
         <v>11</v>
       </c>
+      <c r="C307" t="s">
+        <v>11</v>
+      </c>
       <c r="D307" s="2">
         <v>44440</v>
       </c>
@@ -9326,6 +10244,9 @@
       <c r="B308" t="s">
         <v>11</v>
       </c>
+      <c r="C308" t="s">
+        <v>11</v>
+      </c>
       <c r="D308" s="2">
         <v>44440</v>
       </c>
@@ -9355,6 +10276,9 @@
       <c r="B309" t="s">
         <v>11</v>
       </c>
+      <c r="C309" t="s">
+        <v>11</v>
+      </c>
       <c r="D309" s="2">
         <v>44440</v>
       </c>
@@ -9384,6 +10308,9 @@
       <c r="B310" t="s">
         <v>11</v>
       </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
       <c r="D310" s="2">
         <v>44440</v>
       </c>
@@ -9413,6 +10340,9 @@
       <c r="B311" t="s">
         <v>11</v>
       </c>
+      <c r="C311" t="s">
+        <v>11</v>
+      </c>
       <c r="D311" s="2">
         <v>44440</v>
       </c>
@@ -9442,6 +10372,9 @@
       <c r="B312" t="s">
         <v>11</v>
       </c>
+      <c r="C312" t="s">
+        <v>11</v>
+      </c>
       <c r="D312" s="2">
         <v>44440</v>
       </c>
@@ -9471,6 +10404,9 @@
       <c r="B313" t="s">
         <v>11</v>
       </c>
+      <c r="C313" t="s">
+        <v>11</v>
+      </c>
       <c r="D313" s="2">
         <v>44440</v>
       </c>
@@ -9500,6 +10436,9 @@
       <c r="B314" t="s">
         <v>11</v>
       </c>
+      <c r="C314" t="s">
+        <v>11</v>
+      </c>
       <c r="D314" s="2">
         <v>44440</v>
       </c>
@@ -9529,6 +10468,9 @@
       <c r="B315" t="s">
         <v>11</v>
       </c>
+      <c r="C315" t="s">
+        <v>11</v>
+      </c>
       <c r="D315" s="2">
         <v>44440</v>
       </c>
@@ -9558,6 +10500,9 @@
       <c r="B316" t="s">
         <v>11</v>
       </c>
+      <c r="C316" t="s">
+        <v>11</v>
+      </c>
       <c r="D316" s="2">
         <v>44440</v>
       </c>
@@ -9587,6 +10532,9 @@
       <c r="B317" t="s">
         <v>11</v>
       </c>
+      <c r="C317" t="s">
+        <v>11</v>
+      </c>
       <c r="D317" s="2">
         <v>44440</v>
       </c>
@@ -9610,6 +10558,9 @@
       <c r="B318" t="s">
         <v>11</v>
       </c>
+      <c r="C318" t="s">
+        <v>11</v>
+      </c>
       <c r="D318" s="2">
         <v>44409</v>
       </c>
@@ -9639,6 +10590,9 @@
       <c r="B319" t="s">
         <v>11</v>
       </c>
+      <c r="C319" t="s">
+        <v>11</v>
+      </c>
       <c r="D319" s="2">
         <v>44409</v>
       </c>
@@ -9668,6 +10622,9 @@
       <c r="B320" t="s">
         <v>11</v>
       </c>
+      <c r="C320" t="s">
+        <v>11</v>
+      </c>
       <c r="D320" s="2">
         <v>44409</v>
       </c>
@@ -9697,6 +10654,9 @@
       <c r="B321" t="s">
         <v>11</v>
       </c>
+      <c r="C321" t="s">
+        <v>11</v>
+      </c>
       <c r="D321" s="2">
         <v>44409</v>
       </c>
@@ -9726,6 +10686,9 @@
       <c r="B322" t="s">
         <v>11</v>
       </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
       <c r="D322" s="2">
         <v>44409</v>
       </c>
@@ -9755,6 +10718,9 @@
       <c r="B323" t="s">
         <v>11</v>
       </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
       <c r="D323" s="2">
         <v>44409</v>
       </c>
@@ -9784,6 +10750,9 @@
       <c r="B324" t="s">
         <v>11</v>
       </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
       <c r="D324" s="2">
         <v>44409</v>
       </c>
@@ -9813,6 +10782,9 @@
       <c r="B325" t="s">
         <v>11</v>
       </c>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
       <c r="D325" s="2">
         <v>44409</v>
       </c>
@@ -9842,6 +10814,9 @@
       <c r="B326" t="s">
         <v>11</v>
       </c>
+      <c r="C326" t="s">
+        <v>11</v>
+      </c>
       <c r="D326" s="2">
         <v>44409</v>
       </c>
@@ -9871,6 +10846,9 @@
       <c r="B327" t="s">
         <v>11</v>
       </c>
+      <c r="C327" t="s">
+        <v>11</v>
+      </c>
       <c r="D327" s="2">
         <v>44409</v>
       </c>
@@ -9900,6 +10878,9 @@
       <c r="B328" t="s">
         <v>11</v>
       </c>
+      <c r="C328" t="s">
+        <v>11</v>
+      </c>
       <c r="D328" s="2">
         <v>44409</v>
       </c>
@@ -9929,6 +10910,9 @@
       <c r="B329" t="s">
         <v>11</v>
       </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
       <c r="D329" s="2">
         <v>44409</v>
       </c>
@@ -9958,6 +10942,9 @@
       <c r="B330" t="s">
         <v>11</v>
       </c>
+      <c r="C330" t="s">
+        <v>11</v>
+      </c>
       <c r="D330" s="2">
         <v>44409</v>
       </c>
@@ -9987,6 +10974,9 @@
       <c r="B331" t="s">
         <v>11</v>
       </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
       <c r="D331" s="2">
         <v>44409</v>
       </c>
@@ -10016,6 +11006,9 @@
       <c r="B332" t="s">
         <v>11</v>
       </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
       <c r="D332" s="2">
         <v>44409</v>
       </c>
@@ -10039,6 +11032,9 @@
       <c r="B333" t="s">
         <v>11</v>
       </c>
+      <c r="C333" t="s">
+        <v>11</v>
+      </c>
       <c r="D333" s="2">
         <v>44378</v>
       </c>
@@ -10068,6 +11064,9 @@
       <c r="B334" t="s">
         <v>11</v>
       </c>
+      <c r="C334" t="s">
+        <v>11</v>
+      </c>
       <c r="D334" s="2">
         <v>44378</v>
       </c>
@@ -10097,6 +11096,9 @@
       <c r="B335" t="s">
         <v>11</v>
       </c>
+      <c r="C335" t="s">
+        <v>11</v>
+      </c>
       <c r="D335" s="2">
         <v>44378</v>
       </c>
@@ -10126,6 +11128,9 @@
       <c r="B336" t="s">
         <v>11</v>
       </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
       <c r="D336" s="2">
         <v>44378</v>
       </c>
@@ -10155,6 +11160,9 @@
       <c r="B337" t="s">
         <v>11</v>
       </c>
+      <c r="C337" t="s">
+        <v>11</v>
+      </c>
       <c r="D337" s="2">
         <v>44378</v>
       </c>
@@ -10184,6 +11192,9 @@
       <c r="B338" t="s">
         <v>11</v>
       </c>
+      <c r="C338" t="s">
+        <v>11</v>
+      </c>
       <c r="D338" s="2">
         <v>44378</v>
       </c>
@@ -10213,6 +11224,9 @@
       <c r="B339" t="s">
         <v>11</v>
       </c>
+      <c r="C339" t="s">
+        <v>11</v>
+      </c>
       <c r="D339" s="2">
         <v>44378</v>
       </c>
@@ -10242,6 +11256,9 @@
       <c r="B340" t="s">
         <v>11</v>
       </c>
+      <c r="C340" t="s">
+        <v>11</v>
+      </c>
       <c r="D340" s="2">
         <v>44378</v>
       </c>
@@ -10271,6 +11288,9 @@
       <c r="B341" t="s">
         <v>11</v>
       </c>
+      <c r="C341" t="s">
+        <v>11</v>
+      </c>
       <c r="D341" s="2">
         <v>44378</v>
       </c>
@@ -10300,6 +11320,9 @@
       <c r="B342" t="s">
         <v>11</v>
       </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
       <c r="D342" s="2">
         <v>44378</v>
       </c>
@@ -10329,6 +11352,9 @@
       <c r="B343" t="s">
         <v>11</v>
       </c>
+      <c r="C343" t="s">
+        <v>11</v>
+      </c>
       <c r="D343" s="2">
         <v>44378</v>
       </c>
@@ -10358,6 +11384,9 @@
       <c r="B344" t="s">
         <v>11</v>
       </c>
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
       <c r="D344" s="2">
         <v>44378</v>
       </c>
@@ -10387,6 +11416,9 @@
       <c r="B345" t="s">
         <v>11</v>
       </c>
+      <c r="C345" t="s">
+        <v>11</v>
+      </c>
       <c r="D345" s="2">
         <v>44378</v>
       </c>
@@ -10416,6 +11448,9 @@
       <c r="B346" t="s">
         <v>11</v>
       </c>
+      <c r="C346" t="s">
+        <v>11</v>
+      </c>
       <c r="D346" s="2">
         <v>44378</v>
       </c>
@@ -10445,6 +11480,9 @@
       <c r="B347" t="s">
         <v>11</v>
       </c>
+      <c r="C347" t="s">
+        <v>11</v>
+      </c>
       <c r="D347" s="2">
         <v>44378</v>
       </c>
@@ -10468,6 +11506,9 @@
       <c r="B348" t="s">
         <v>11</v>
       </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
       <c r="D348" s="2">
         <v>44348</v>
       </c>
@@ -10497,6 +11538,9 @@
       <c r="B349" t="s">
         <v>11</v>
       </c>
+      <c r="C349" t="s">
+        <v>11</v>
+      </c>
       <c r="D349" s="2">
         <v>44348</v>
       </c>
@@ -10526,6 +11570,9 @@
       <c r="B350" t="s">
         <v>11</v>
       </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
       <c r="D350" s="2">
         <v>44348</v>
       </c>
@@ -10555,6 +11602,9 @@
       <c r="B351" t="s">
         <v>11</v>
       </c>
+      <c r="C351" t="s">
+        <v>11</v>
+      </c>
       <c r="D351" s="2">
         <v>44348</v>
       </c>
@@ -10584,6 +11634,9 @@
       <c r="B352" t="s">
         <v>11</v>
       </c>
+      <c r="C352" t="s">
+        <v>11</v>
+      </c>
       <c r="D352" s="2">
         <v>44348</v>
       </c>
@@ -10613,6 +11666,9 @@
       <c r="B353" t="s">
         <v>11</v>
       </c>
+      <c r="C353" t="s">
+        <v>11</v>
+      </c>
       <c r="D353" s="2">
         <v>44348</v>
       </c>
@@ -10642,6 +11698,9 @@
       <c r="B354" t="s">
         <v>11</v>
       </c>
+      <c r="C354" t="s">
+        <v>11</v>
+      </c>
       <c r="D354" s="2">
         <v>44348</v>
       </c>
@@ -10671,6 +11730,9 @@
       <c r="B355" t="s">
         <v>11</v>
       </c>
+      <c r="C355" t="s">
+        <v>11</v>
+      </c>
       <c r="D355" s="2">
         <v>44348</v>
       </c>
@@ -10700,6 +11762,9 @@
       <c r="B356" t="s">
         <v>11</v>
       </c>
+      <c r="C356" t="s">
+        <v>11</v>
+      </c>
       <c r="D356" s="2">
         <v>44348</v>
       </c>
@@ -10729,6 +11794,9 @@
       <c r="B357" t="s">
         <v>11</v>
       </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
       <c r="D357" s="2">
         <v>44348</v>
       </c>
@@ -10758,6 +11826,9 @@
       <c r="B358" t="s">
         <v>11</v>
       </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
       <c r="D358" s="2">
         <v>44348</v>
       </c>
@@ -10787,6 +11858,9 @@
       <c r="B359" t="s">
         <v>11</v>
       </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
       <c r="D359" s="2">
         <v>44348</v>
       </c>
@@ -10816,6 +11890,9 @@
       <c r="B360" t="s">
         <v>11</v>
       </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
       <c r="D360" s="2">
         <v>44348</v>
       </c>
@@ -10845,6 +11922,9 @@
       <c r="B361" t="s">
         <v>11</v>
       </c>
+      <c r="C361" t="s">
+        <v>11</v>
+      </c>
       <c r="D361" s="2">
         <v>44348</v>
       </c>
@@ -10874,6 +11954,9 @@
       <c r="B362" t="s">
         <v>11</v>
       </c>
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
       <c r="D362" s="2">
         <v>44348</v>
       </c>
@@ -10897,6 +11980,9 @@
       <c r="B363" t="s">
         <v>11</v>
       </c>
+      <c r="C363" t="s">
+        <v>11</v>
+      </c>
       <c r="D363" s="2">
         <v>44317</v>
       </c>
@@ -10926,6 +12012,9 @@
       <c r="B364" t="s">
         <v>11</v>
       </c>
+      <c r="C364" t="s">
+        <v>11</v>
+      </c>
       <c r="D364" s="2">
         <v>44317</v>
       </c>
@@ -10955,6 +12044,9 @@
       <c r="B365" t="s">
         <v>11</v>
       </c>
+      <c r="C365" t="s">
+        <v>11</v>
+      </c>
       <c r="D365" s="2">
         <v>44317</v>
       </c>
@@ -10984,6 +12076,9 @@
       <c r="B366" t="s">
         <v>11</v>
       </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
       <c r="D366" s="2">
         <v>44317</v>
       </c>
@@ -11013,6 +12108,9 @@
       <c r="B367" t="s">
         <v>11</v>
       </c>
+      <c r="C367" t="s">
+        <v>11</v>
+      </c>
       <c r="D367" s="2">
         <v>44317</v>
       </c>
@@ -11033,6 +12131,9 @@
       <c r="B368" t="s">
         <v>11</v>
       </c>
+      <c r="C368" t="s">
+        <v>11</v>
+      </c>
       <c r="D368" s="2">
         <v>44317</v>
       </c>
@@ -11062,6 +12163,9 @@
       <c r="B369" t="s">
         <v>11</v>
       </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
       <c r="D369" s="2">
         <v>44317</v>
       </c>
@@ -11091,6 +12195,9 @@
       <c r="B370" t="s">
         <v>11</v>
       </c>
+      <c r="C370" t="s">
+        <v>11</v>
+      </c>
       <c r="D370" s="2">
         <v>44317</v>
       </c>
@@ -11120,6 +12227,9 @@
       <c r="B371" t="s">
         <v>11</v>
       </c>
+      <c r="C371" t="s">
+        <v>11</v>
+      </c>
       <c r="D371" s="2">
         <v>44317</v>
       </c>
@@ -11149,6 +12259,9 @@
       <c r="B372" t="s">
         <v>11</v>
       </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
       <c r="D372" s="2">
         <v>44317</v>
       </c>
@@ -11178,6 +12291,9 @@
       <c r="B373" t="s">
         <v>11</v>
       </c>
+      <c r="C373" t="s">
+        <v>11</v>
+      </c>
       <c r="D373" s="2">
         <v>44317</v>
       </c>
@@ -11207,6 +12323,9 @@
       <c r="B374" t="s">
         <v>11</v>
       </c>
+      <c r="C374" t="s">
+        <v>11</v>
+      </c>
       <c r="D374" s="2">
         <v>44317</v>
       </c>
@@ -11236,6 +12355,9 @@
       <c r="B375" t="s">
         <v>11</v>
       </c>
+      <c r="C375" t="s">
+        <v>11</v>
+      </c>
       <c r="D375" s="2">
         <v>44317</v>
       </c>
@@ -11265,6 +12387,9 @@
       <c r="B376" t="s">
         <v>11</v>
       </c>
+      <c r="C376" t="s">
+        <v>11</v>
+      </c>
       <c r="D376" s="2">
         <v>44317</v>
       </c>
@@ -11294,6 +12419,9 @@
       <c r="B377" t="s">
         <v>11</v>
       </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
       <c r="D377" s="2">
         <v>44317</v>
       </c>
@@ -11317,6 +12445,9 @@
       <c r="B378" t="s">
         <v>11</v>
       </c>
+      <c r="C378" t="s">
+        <v>11</v>
+      </c>
       <c r="D378" s="2">
         <v>44287</v>
       </c>
@@ -11346,6 +12477,9 @@
       <c r="B379" t="s">
         <v>11</v>
       </c>
+      <c r="C379" t="s">
+        <v>11</v>
+      </c>
       <c r="D379" s="2">
         <v>44287</v>
       </c>
@@ -11375,6 +12509,9 @@
       <c r="B380" t="s">
         <v>11</v>
       </c>
+      <c r="C380" t="s">
+        <v>11</v>
+      </c>
       <c r="D380" s="2">
         <v>44287</v>
       </c>
@@ -11404,6 +12541,9 @@
       <c r="B381" t="s">
         <v>11</v>
       </c>
+      <c r="C381" t="s">
+        <v>11</v>
+      </c>
       <c r="D381" s="2">
         <v>44287</v>
       </c>
@@ -11433,6 +12573,9 @@
       <c r="B382" t="s">
         <v>11</v>
       </c>
+      <c r="C382" t="s">
+        <v>11</v>
+      </c>
       <c r="D382" s="2">
         <v>44287</v>
       </c>
@@ -11453,6 +12596,9 @@
       <c r="B383" t="s">
         <v>11</v>
       </c>
+      <c r="C383" t="s">
+        <v>11</v>
+      </c>
       <c r="D383" s="2">
         <v>44287</v>
       </c>
@@ -11482,6 +12628,9 @@
       <c r="B384" t="s">
         <v>11</v>
       </c>
+      <c r="C384" t="s">
+        <v>11</v>
+      </c>
       <c r="D384" s="2">
         <v>44287</v>
       </c>
@@ -11511,6 +12660,9 @@
       <c r="B385" t="s">
         <v>11</v>
       </c>
+      <c r="C385" t="s">
+        <v>11</v>
+      </c>
       <c r="D385" s="2">
         <v>44287</v>
       </c>
@@ -11540,6 +12692,9 @@
       <c r="B386" t="s">
         <v>11</v>
       </c>
+      <c r="C386" t="s">
+        <v>11</v>
+      </c>
       <c r="D386" s="2">
         <v>44287</v>
       </c>
@@ -11569,6 +12724,9 @@
       <c r="B387" t="s">
         <v>11</v>
       </c>
+      <c r="C387" t="s">
+        <v>11</v>
+      </c>
       <c r="D387" s="2">
         <v>44287</v>
       </c>
@@ -11589,6 +12747,9 @@
       <c r="B388" t="s">
         <v>11</v>
       </c>
+      <c r="C388" t="s">
+        <v>11</v>
+      </c>
       <c r="D388" s="2">
         <v>44287</v>
       </c>
@@ -11618,6 +12779,9 @@
       <c r="B389" t="s">
         <v>11</v>
       </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
       <c r="D389" s="2">
         <v>44287</v>
       </c>
@@ -11647,6 +12811,9 @@
       <c r="B390" t="s">
         <v>11</v>
       </c>
+      <c r="C390" t="s">
+        <v>11</v>
+      </c>
       <c r="D390" s="2">
         <v>44287</v>
       </c>
@@ -11676,6 +12843,9 @@
       <c r="B391" t="s">
         <v>11</v>
       </c>
+      <c r="C391" t="s">
+        <v>11</v>
+      </c>
       <c r="D391" s="2">
         <v>44287</v>
       </c>
@@ -11705,6 +12875,9 @@
       <c r="B392" t="s">
         <v>11</v>
       </c>
+      <c r="C392" t="s">
+        <v>11</v>
+      </c>
       <c r="D392" s="2">
         <v>44287</v>
       </c>
@@ -11728,6 +12901,9 @@
       <c r="B393" t="s">
         <v>11</v>
       </c>
+      <c r="C393" t="s">
+        <v>11</v>
+      </c>
       <c r="D393" s="2">
         <v>44256</v>
       </c>
@@ -11757,6 +12933,9 @@
       <c r="B394" t="s">
         <v>11</v>
       </c>
+      <c r="C394" t="s">
+        <v>11</v>
+      </c>
       <c r="D394" s="2">
         <v>44256</v>
       </c>
@@ -11786,6 +12965,9 @@
       <c r="B395" t="s">
         <v>11</v>
       </c>
+      <c r="C395" t="s">
+        <v>11</v>
+      </c>
       <c r="D395" s="2">
         <v>44256</v>
       </c>
@@ -11815,6 +12997,9 @@
       <c r="B396" t="s">
         <v>11</v>
       </c>
+      <c r="C396" t="s">
+        <v>11</v>
+      </c>
       <c r="D396" s="2">
         <v>44256</v>
       </c>
@@ -11844,6 +13029,9 @@
       <c r="B397" t="s">
         <v>11</v>
       </c>
+      <c r="C397" t="s">
+        <v>11</v>
+      </c>
       <c r="D397" s="2">
         <v>44256</v>
       </c>
@@ -11864,6 +13052,9 @@
       <c r="B398" t="s">
         <v>11</v>
       </c>
+      <c r="C398" t="s">
+        <v>11</v>
+      </c>
       <c r="D398" s="2">
         <v>44256</v>
       </c>
@@ -11893,6 +13084,9 @@
       <c r="B399" t="s">
         <v>11</v>
       </c>
+      <c r="C399" t="s">
+        <v>11</v>
+      </c>
       <c r="D399" s="2">
         <v>44256</v>
       </c>
@@ -11913,6 +13107,9 @@
       <c r="B400" t="s">
         <v>11</v>
       </c>
+      <c r="C400" t="s">
+        <v>11</v>
+      </c>
       <c r="D400" s="2">
         <v>44256</v>
       </c>
@@ -11942,6 +13139,9 @@
       <c r="B401" t="s">
         <v>11</v>
       </c>
+      <c r="C401" t="s">
+        <v>11</v>
+      </c>
       <c r="D401" s="2">
         <v>44256</v>
       </c>
@@ -11971,6 +13171,9 @@
       <c r="B402" t="s">
         <v>11</v>
       </c>
+      <c r="C402" t="s">
+        <v>11</v>
+      </c>
       <c r="D402" s="2">
         <v>44256</v>
       </c>
@@ -11991,6 +13194,9 @@
       <c r="B403" t="s">
         <v>11</v>
       </c>
+      <c r="C403" t="s">
+        <v>11</v>
+      </c>
       <c r="D403" s="2">
         <v>44256</v>
       </c>
@@ -12020,6 +13226,9 @@
       <c r="B404" t="s">
         <v>11</v>
       </c>
+      <c r="C404" t="s">
+        <v>11</v>
+      </c>
       <c r="D404" s="2">
         <v>44256</v>
       </c>
@@ -12049,6 +13258,9 @@
       <c r="B405" t="s">
         <v>11</v>
       </c>
+      <c r="C405" t="s">
+        <v>11</v>
+      </c>
       <c r="D405" s="2">
         <v>44256</v>
       </c>
@@ -12078,6 +13290,9 @@
       <c r="B406" t="s">
         <v>11</v>
       </c>
+      <c r="C406" t="s">
+        <v>11</v>
+      </c>
       <c r="D406" s="2">
         <v>44256</v>
       </c>
@@ -12107,6 +13322,9 @@
       <c r="B407" t="s">
         <v>11</v>
       </c>
+      <c r="C407" t="s">
+        <v>11</v>
+      </c>
       <c r="D407" s="2">
         <v>44256</v>
       </c>
@@ -12130,6 +13348,9 @@
       <c r="B408" t="s">
         <v>11</v>
       </c>
+      <c r="C408" t="s">
+        <v>11</v>
+      </c>
       <c r="D408" s="2">
         <v>44228</v>
       </c>
@@ -12159,6 +13380,9 @@
       <c r="B409" t="s">
         <v>11</v>
       </c>
+      <c r="C409" t="s">
+        <v>11</v>
+      </c>
       <c r="D409" s="2">
         <v>44228</v>
       </c>
@@ -12188,6 +13412,9 @@
       <c r="B410" t="s">
         <v>11</v>
       </c>
+      <c r="C410" t="s">
+        <v>11</v>
+      </c>
       <c r="D410" s="2">
         <v>44228</v>
       </c>
@@ -12217,6 +13444,9 @@
       <c r="B411" t="s">
         <v>11</v>
       </c>
+      <c r="C411" t="s">
+        <v>11</v>
+      </c>
       <c r="D411" s="2">
         <v>44228</v>
       </c>
@@ -12246,6 +13476,9 @@
       <c r="B412" t="s">
         <v>11</v>
       </c>
+      <c r="C412" t="s">
+        <v>11</v>
+      </c>
       <c r="D412" s="2">
         <v>44228</v>
       </c>
@@ -12266,6 +13499,9 @@
       <c r="B413" t="s">
         <v>11</v>
       </c>
+      <c r="C413" t="s">
+        <v>11</v>
+      </c>
       <c r="D413" s="2">
         <v>44228</v>
       </c>
@@ -12295,6 +13531,9 @@
       <c r="B414" t="s">
         <v>11</v>
       </c>
+      <c r="C414" t="s">
+        <v>11</v>
+      </c>
       <c r="D414" s="2">
         <v>44228</v>
       </c>
@@ -12315,6 +13554,9 @@
       <c r="B415" t="s">
         <v>11</v>
       </c>
+      <c r="C415" t="s">
+        <v>11</v>
+      </c>
       <c r="D415" s="2">
         <v>44228</v>
       </c>
@@ -12344,6 +13586,9 @@
       <c r="B416" t="s">
         <v>11</v>
       </c>
+      <c r="C416" t="s">
+        <v>11</v>
+      </c>
       <c r="D416" s="2">
         <v>44228</v>
       </c>
@@ -12373,6 +13618,9 @@
       <c r="B417" t="s">
         <v>11</v>
       </c>
+      <c r="C417" t="s">
+        <v>11</v>
+      </c>
       <c r="D417" s="2">
         <v>44228</v>
       </c>
@@ -12393,6 +13641,9 @@
       <c r="B418" t="s">
         <v>11</v>
       </c>
+      <c r="C418" t="s">
+        <v>11</v>
+      </c>
       <c r="D418" s="2">
         <v>44228</v>
       </c>
@@ -12422,6 +13673,9 @@
       <c r="B419" t="s">
         <v>11</v>
       </c>
+      <c r="C419" t="s">
+        <v>11</v>
+      </c>
       <c r="D419" s="2">
         <v>44228</v>
       </c>
@@ -12451,6 +13705,9 @@
       <c r="B420" t="s">
         <v>11</v>
       </c>
+      <c r="C420" t="s">
+        <v>11</v>
+      </c>
       <c r="D420" s="2">
         <v>44228</v>
       </c>
@@ -12480,6 +13737,9 @@
       <c r="B421" t="s">
         <v>11</v>
       </c>
+      <c r="C421" t="s">
+        <v>11</v>
+      </c>
       <c r="D421" s="2">
         <v>44228</v>
       </c>
@@ -12509,6 +13769,9 @@
       <c r="B422" t="s">
         <v>11</v>
       </c>
+      <c r="C422" t="s">
+        <v>11</v>
+      </c>
       <c r="D422" s="2">
         <v>44228</v>
       </c>
@@ -12532,6 +13795,9 @@
       <c r="B423" t="s">
         <v>11</v>
       </c>
+      <c r="C423" t="s">
+        <v>11</v>
+      </c>
       <c r="D423" s="2">
         <v>44197</v>
       </c>
@@ -12561,6 +13827,9 @@
       <c r="B424" t="s">
         <v>11</v>
       </c>
+      <c r="C424" t="s">
+        <v>11</v>
+      </c>
       <c r="D424" s="2">
         <v>44197</v>
       </c>
@@ -12590,6 +13859,9 @@
       <c r="B425" t="s">
         <v>11</v>
       </c>
+      <c r="C425" t="s">
+        <v>11</v>
+      </c>
       <c r="D425" s="2">
         <v>44197</v>
       </c>
@@ -12610,6 +13882,9 @@
       <c r="B426" t="s">
         <v>11</v>
       </c>
+      <c r="C426" t="s">
+        <v>11</v>
+      </c>
       <c r="D426" s="2">
         <v>44197</v>
       </c>
@@ -12639,6 +13914,9 @@
       <c r="B427" t="s">
         <v>11</v>
       </c>
+      <c r="C427" t="s">
+        <v>11</v>
+      </c>
       <c r="D427" s="2">
         <v>44197</v>
       </c>
@@ -12659,6 +13937,9 @@
       <c r="B428" t="s">
         <v>11</v>
       </c>
+      <c r="C428" t="s">
+        <v>11</v>
+      </c>
       <c r="D428" s="2">
         <v>44197</v>
       </c>
@@ -12688,6 +13969,9 @@
       <c r="B429" t="s">
         <v>11</v>
       </c>
+      <c r="C429" t="s">
+        <v>11</v>
+      </c>
       <c r="D429" s="2">
         <v>44197</v>
       </c>
@@ -12708,6 +13992,9 @@
       <c r="B430" t="s">
         <v>11</v>
       </c>
+      <c r="C430" t="s">
+        <v>11</v>
+      </c>
       <c r="D430" s="2">
         <v>44197</v>
       </c>
@@ -12737,6 +14024,9 @@
       <c r="B431" t="s">
         <v>11</v>
       </c>
+      <c r="C431" t="s">
+        <v>11</v>
+      </c>
       <c r="D431" s="2">
         <v>44197</v>
       </c>
@@ -12766,6 +14056,9 @@
       <c r="B432" t="s">
         <v>11</v>
       </c>
+      <c r="C432" t="s">
+        <v>11</v>
+      </c>
       <c r="D432" s="2">
         <v>44197</v>
       </c>
@@ -12786,6 +14079,9 @@
       <c r="B433" t="s">
         <v>11</v>
       </c>
+      <c r="C433" t="s">
+        <v>11</v>
+      </c>
       <c r="D433" s="2">
         <v>44197</v>
       </c>
@@ -12815,6 +14111,9 @@
       <c r="B434" t="s">
         <v>11</v>
       </c>
+      <c r="C434" t="s">
+        <v>11</v>
+      </c>
       <c r="D434" s="2">
         <v>44197</v>
       </c>
@@ -12844,6 +14143,9 @@
       <c r="B435" t="s">
         <v>11</v>
       </c>
+      <c r="C435" t="s">
+        <v>11</v>
+      </c>
       <c r="D435" s="2">
         <v>44197</v>
       </c>
@@ -12864,6 +14166,9 @@
       <c r="B436" t="s">
         <v>11</v>
       </c>
+      <c r="C436" t="s">
+        <v>11</v>
+      </c>
       <c r="D436" s="2">
         <v>44197</v>
       </c>
@@ -12891,6 +14196,9 @@
         <v>10</v>
       </c>
       <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
         <v>11</v>
       </c>
       <c r="D437" s="2">
